--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1006417.118639665</v>
+        <v>1091784.424672927</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>227.9187527607135</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>259.632696771575</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>83.54777021721299</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>44.90240916332934</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>48.20279434449704</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>11.49411350492775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>60.69857100201111</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>71.99295695522306</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539848</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253649</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813363</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>96.86967927642009</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>190.2606141514412</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>21.84093579596237</v>
+        <v>185.3533156678056</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>152.3903014912406</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>239.5476634955877</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>90.78765443589957</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.780648621922</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>244.2230125550532</v>
       </c>
       <c r="D11" t="n">
-        <v>145.2481701217143</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>138.1665993380041</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>33.43460157532821</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>204.1149264341229</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971805</v>
       </c>
     </row>
     <row r="17">
@@ -1847,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>224.1347930294068</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926837</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>52.70548389690155</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2020,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>114.2656173771028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>245.4782705995536</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>90.12950298119121</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.36824379237575</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>171.5112152512261</v>
       </c>
     </row>
     <row r="23">
@@ -2321,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>186.8250998946398</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>129.6194020613859</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699175</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>142.384427099595</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="U26" t="n">
-        <v>137.9038626268942</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>51.06561173382052</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.84901245549792</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>99.59933623926702</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>126.7498226612772</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>59.09544689343534</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>87.83762944231071</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>114.5505532674836</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>129.4714269367826</v>
       </c>
     </row>
     <row r="33">
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>114.2656173771023</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>19.58945082857502</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>267.3434267027876</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>194.3606546765272</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -3317,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>47.41254713315882</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.2594250626526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>145.2481701217128</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>293.2388594828961</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3676,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>135.824103425091</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>209.3584761600169</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.78083674901936</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>58.92805047991973</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>99.13931750950005</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>77.15339550871941</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.7411810187687</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>57.92518451681224</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>234.8758626236981</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>209.3584761600161</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.477756798422</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="C2" t="n">
-        <v>157.477756798422</v>
+        <v>670.32375641013</v>
       </c>
       <c r="D2" t="n">
-        <v>157.477756798422</v>
+        <v>670.32375641013</v>
       </c>
       <c r="E2" t="n">
-        <v>157.477756798422</v>
+        <v>670.32375641013</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
         <v>137.5684432757741</v>
@@ -4328,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4360,22 @@
         <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>423.8554133656</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>157.477756798422</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>157.477756798422</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y2" t="n">
-        <v>157.477756798422</v>
+        <v>900.5447187946892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.3997601587378</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
@@ -4407,22 +4409,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>694.2029851278863</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>864.1415324546163</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>970.4638329179309</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810723</v>
+        <v>735.3117246861882</v>
       </c>
       <c r="W3" t="n">
-        <v>756.0115591292245</v>
+        <v>481.0743679579866</v>
       </c>
       <c r="X3" t="n">
-        <v>548.1600589236916</v>
+        <v>273.2228677524538</v>
       </c>
       <c r="Y3" t="n">
-        <v>340.3997601587378</v>
+        <v>65.46256898749988</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.01124519141254</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="C4" t="n">
-        <v>85.01124519141254</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="D4" t="n">
-        <v>85.01124519141254</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="E4" t="n">
-        <v>85.01124519141254</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="F4" t="n">
-        <v>85.01124519141254</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="G4" t="n">
-        <v>85.01124519141254</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H4" t="n">
-        <v>85.01124519141254</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
         <v>36.32155393434482</v>
@@ -4489,19 +4491,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>493.8069210092334</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001379</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="W4" t="n">
-        <v>533.79337523296</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="X4" t="n">
-        <v>305.8038243349426</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.01124519141254</v>
+        <v>482.1967053476902</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>986.913873039219</v>
+        <v>1319.80606130679</v>
       </c>
       <c r="C5" t="n">
-        <v>986.913873039219</v>
+        <v>1319.80606130679</v>
       </c>
       <c r="D5" t="n">
-        <v>986.913873039219</v>
+        <v>1319.80606130679</v>
       </c>
       <c r="E5" t="n">
-        <v>601.1256204409747</v>
+        <v>934.0178087085453</v>
       </c>
       <c r="F5" t="n">
-        <v>190.1397156513671</v>
+        <v>523.0319039189378</v>
       </c>
       <c r="G5" t="n">
-        <v>128.8280277705478</v>
+        <v>106.5855949319867</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705478</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="J5" t="n">
         <v>108.4604468780281</v>
       </c>
       <c r="K5" t="n">
-        <v>270.99754908187</v>
+        <v>270.9975490818698</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373999</v>
+        <v>509.5409587373995</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176505</v>
+        <v>806.6359018176497</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058973</v>
+        <v>1113.151960058971</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836701</v>
+        <v>1389.251120836699</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921693</v>
+        <v>1590.394365921691</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567872</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567872</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961961</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="T5" t="n">
-        <v>1339.682528309333</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="U5" t="n">
-        <v>1339.682528309333</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="V5" t="n">
-        <v>1339.682528309333</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="W5" t="n">
-        <v>986.913873039219</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="X5" t="n">
-        <v>986.913873039219</v>
+        <v>1319.80606130679</v>
       </c>
       <c r="Y5" t="n">
-        <v>986.913873039219</v>
+        <v>1319.80606130679</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.0248883123062</v>
+        <v>757.3591659638403</v>
       </c>
       <c r="C6" t="n">
-        <v>488.5718590311792</v>
+        <v>757.3591659638403</v>
       </c>
       <c r="D6" t="n">
-        <v>339.6374493699279</v>
+        <v>608.424756302589</v>
       </c>
       <c r="E6" t="n">
-        <v>180.3999943644725</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135743</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135743</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135743</v>
+        <v>67.95335120765399</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324476</v>
+        <v>59.47586665324461</v>
       </c>
       <c r="K6" t="n">
-        <v>443.2235805075032</v>
+        <v>245.8075604192536</v>
       </c>
       <c r="L6" t="n">
-        <v>653.4921936302387</v>
+        <v>456.076173541989</v>
       </c>
       <c r="M6" t="n">
-        <v>918.2226155869805</v>
+        <v>720.8065954987305</v>
       </c>
       <c r="N6" t="n">
-        <v>1204.368308998709</v>
+        <v>1006.952288910459</v>
       </c>
       <c r="O6" t="n">
-        <v>1443.915920172907</v>
+        <v>1246.499900084657</v>
       </c>
       <c r="P6" t="n">
-        <v>1616.840930787377</v>
+        <v>1419.424910699126</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232585</v>
+        <v>1693.078019232583</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567872</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567872</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567872</v>
+        <v>1595.423658682597</v>
       </c>
       <c r="U6" t="n">
-        <v>1693.271819567872</v>
+        <v>1595.423658682597</v>
       </c>
       <c r="V6" t="n">
-        <v>1501.089381031062</v>
+        <v>1595.423658682597</v>
       </c>
       <c r="W6" t="n">
-        <v>1246.852024302861</v>
+        <v>1341.186301954395</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.000524097328</v>
+        <v>1133.334801748862</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.2402253323742</v>
+        <v>925.5745029839084</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.8016193192643</v>
+        <v>598.4268428349033</v>
       </c>
       <c r="C7" t="n">
-        <v>33.86543639135743</v>
+        <v>598.4268428349033</v>
       </c>
       <c r="D7" t="n">
-        <v>33.86543639135743</v>
+        <v>448.3102034225675</v>
       </c>
       <c r="E7" t="n">
-        <v>33.86543639135743</v>
+        <v>448.3102034225675</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135743</v>
+        <v>301.4202559246571</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135743</v>
+        <v>301.4202559246571</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135743</v>
+        <v>149.7239061590866</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652222</v>
+        <v>36.28512133652212</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128603</v>
+        <v>170.0982437128601</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119595</v>
+        <v>396.8594047119592</v>
       </c>
       <c r="M7" t="n">
-        <v>646.336377819155</v>
+        <v>646.3363778191546</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361669</v>
+        <v>895.3159625361664</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021383</v>
+        <v>1109.272612021382</v>
       </c>
       <c r="P7" t="n">
         <v>1268.828805580468</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933648</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="S7" t="n">
-        <v>1178.322155933648</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="T7" t="n">
-        <v>1156.260604624596</v>
+        <v>1108.636592015394</v>
       </c>
       <c r="U7" t="n">
-        <v>867.1241232534082</v>
+        <v>1108.636592015394</v>
       </c>
       <c r="V7" t="n">
-        <v>612.4396350475214</v>
+        <v>1108.636592015394</v>
       </c>
       <c r="W7" t="n">
-        <v>612.4396350475214</v>
+        <v>819.2194219784334</v>
       </c>
       <c r="X7" t="n">
-        <v>384.4500841495041</v>
+        <v>819.2194219784334</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.4500841495041</v>
+        <v>598.4268428349033</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1842.294639468328</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4817,37 +4819,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.89447953245</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2228.89447953245</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>482.9033490193025</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507741</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.9284545426499</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C10" t="n">
-        <v>496.992271614743</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D10" t="n">
-        <v>346.8756322024072</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1175.839371182342</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>886.72103368618</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>886.72103368618</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>886.72103368618</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>886.72103368618</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.9284545426499</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796261</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392144</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D11" t="n">
-        <v>406.0926155839475</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>406.0926155839475</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5124,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5188,13 +5190,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2098.94140762926</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C14" t="n">
-        <v>1729.978890688848</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D14" t="n">
-        <v>1371.713192082098</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.546497866152</v>
+        <v>3038.303020059443</v>
       </c>
       <c r="X14" t="n">
-        <v>2489.080739605072</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y14" t="n">
-        <v>2098.94140762926</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064583</v>
@@ -5358,13 +5360,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5376,31 +5378,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5476,7 +5478,7 @@
         <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>384.6303727573681</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
         <v>163.8377936138381</v>
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1844.338003964587</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C17" t="n">
-        <v>1844.338003964587</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="F17" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5534,31 +5536,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.542934265601</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2621.077176004521</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2230.937844028709</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F19" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.464090846021</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.044275313594</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1133.32083113111</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C20" t="n">
-        <v>764.3583141906979</v>
+        <v>1179.430764345702</v>
       </c>
       <c r="D20" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="E20" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U20" t="n">
-        <v>2967.357304045808</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V20" t="n">
-        <v>2636.294416702237</v>
+        <v>2664.767026793119</v>
       </c>
       <c r="W20" t="n">
-        <v>2283.525761432123</v>
+        <v>2311.998371523005</v>
       </c>
       <c r="X20" t="n">
-        <v>1910.060003171043</v>
+        <v>1938.532613261925</v>
       </c>
       <c r="Y20" t="n">
-        <v>1519.920671195231</v>
+        <v>1548.393281286113</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>511.4317969248226</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C22" t="n">
-        <v>511.4317969248226</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>2022.959038039848</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797168</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456654</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S22" t="n">
-        <v>1907.730665469931</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T22" t="n">
-        <v>1685.964050039457</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="U22" t="n">
-        <v>1685.964050039457</v>
+        <v>2844.817070561639</v>
       </c>
       <c r="V22" t="n">
-        <v>1431.27956183357</v>
+        <v>2844.817070561639</v>
       </c>
       <c r="W22" t="n">
-        <v>1141.86239179661</v>
+        <v>2844.817070561639</v>
       </c>
       <c r="X22" t="n">
-        <v>913.8728408985925</v>
+        <v>2844.817070561639</v>
       </c>
       <c r="Y22" t="n">
-        <v>693.0802617550623</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796256</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C23" t="n">
-        <v>552.807938939214</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D23" t="n">
-        <v>364.0957168234162</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E23" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6017,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>3084.386464185371</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="24">
@@ -6078,16 +6080,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>2151.073568494536</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>1982.137385566629</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>1832.020746154294</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>1684.1076525719</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>1537.21770507399</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088492</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="W25" t="n">
-        <v>1637.877378051532</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>2553.514612468306</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>2332.722033324776</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6229,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6236,7 +6238,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939507</v>
@@ -6251,22 +6253,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="U26" t="n">
-        <v>3076.018322200008</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V26" t="n">
-        <v>2744.955434856437</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W26" t="n">
-        <v>2392.186779586323</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X26" t="n">
-        <v>2392.186779586323</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y26" t="n">
         <v>2392.186779586323</v>
@@ -6309,22 +6311,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2392.599276780829</v>
+        <v>2151.073568494535</v>
       </c>
       <c r="C28" t="n">
-        <v>2223.663093852922</v>
+        <v>1982.137385566628</v>
       </c>
       <c r="D28" t="n">
-        <v>2073.546454440587</v>
+        <v>1832.020746154293</v>
       </c>
       <c r="E28" t="n">
-        <v>1925.633360858194</v>
+        <v>1684.1076525719</v>
       </c>
       <c r="F28" t="n">
-        <v>1778.743413360284</v>
+        <v>1632.526226578141</v>
       </c>
       <c r="G28" t="n">
-        <v>1611.040576735003</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H28" t="n">
         <v>1464.82338995286</v>
@@ -6406,28 +6408,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366697</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193524</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T28" t="n">
-        <v>3023.029871652617</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U28" t="n">
-        <v>3023.029871652617</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V28" t="n">
-        <v>3023.029871652617</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W28" t="n">
-        <v>3023.029871652617</v>
+        <v>2781.504163366322</v>
       </c>
       <c r="X28" t="n">
-        <v>2795.040320754599</v>
+        <v>2553.514612468305</v>
       </c>
       <c r="Y28" t="n">
-        <v>2574.247741611069</v>
+        <v>2332.722033324775</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796256</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C29" t="n">
-        <v>552.807938939214</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="D29" t="n">
-        <v>194.5422403324635</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="E29" t="n">
-        <v>194.5422403324635</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5422403324635</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>194.5422403324635</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>856.5030099609336</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>687.5668270330267</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>537.4501876206909</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F31" t="n">
         <v>477.7578170212613</v>
@@ -6616,7 +6618,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6652,19 +6654,19 @@
         <v>1837.46409084602</v>
       </c>
       <c r="U31" t="n">
-        <v>1837.46409084602</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.779602640133</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.779602640133</v>
+        <v>1258.944053934703</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>1258.944053934703</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>1038.151474791173</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.52858457759</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>810.5660676371781</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3003690304276</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>66.51211643218339</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218339</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218339</v>
@@ -6701,10 +6703,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
@@ -6728,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450752</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X32" t="n">
-        <v>1956.267756617523</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="Y32" t="n">
-        <v>1566.128424641711</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962484</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034577</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622241</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039848</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916657</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>3120.355548834271</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>3120.355548834271</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>3120.355548834271</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V34" t="n">
-        <v>3120.355548834271</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W34" t="n">
-        <v>3120.355548834271</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="X34" t="n">
-        <v>2892.365997936254</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y34" t="n">
-        <v>2671.573418792724</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694472</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.606831754061</v>
+        <v>663.098607412119</v>
       </c>
       <c r="D35" t="n">
-        <v>764.3411331473101</v>
+        <v>304.8329088053685</v>
       </c>
       <c r="E35" t="n">
-        <v>378.5528805490658</v>
+        <v>304.8329088053685</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5090151927147</v>
+        <v>304.8329088053685</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>304.8329088053685</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
@@ -6935,10 +6937,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6953,7 +6955,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6965,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.5429342656</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995485</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734406</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758594</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7032,34 +7034,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7129,16 +7131,16 @@
         <v>1927.294548088492</v>
       </c>
       <c r="V37" t="n">
-        <v>1927.294548088492</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W37" t="n">
-        <v>1637.877378051532</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X37" t="n">
-        <v>1409.887827153514</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796247</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939213</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D38" t="n">
-        <v>406.0926155839476</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E38" t="n">
-        <v>406.0926155839476</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.0926155839476</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218339</v>
@@ -7175,10 +7177,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
@@ -7187,7 +7189,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7199,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450752</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919558</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943746</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7247,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7266,7 +7268,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.41198488674</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2246.382089998688</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C40" t="n">
-        <v>2077.445907070781</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D40" t="n">
-        <v>1927.329267658445</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E40" t="n">
-        <v>1779.416174076052</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F40" t="n">
-        <v>1632.526226578142</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>3014.008748936224</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U40" t="n">
-        <v>3014.008748936224</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V40" t="n">
-        <v>3014.008748936224</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="W40" t="n">
-        <v>2876.812684870475</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="X40" t="n">
-        <v>2648.823133972458</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y40" t="n">
-        <v>2428.030554828928</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>2065.110222835251</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.147705894839</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528559</v>
+        <v>952.0937546898447</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389512</v>
+        <v>541.1078499002372</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839476</v>
+        <v>126.0353997452336</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912098</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081056</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939507</v>
@@ -7439,22 +7441,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450752</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W41" t="n">
-        <v>2424.744041450752</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X41" t="n">
-        <v>2424.744041450752</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y41" t="n">
-        <v>2424.744041450752</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="42">
@@ -7464,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.5187033424295</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C43" t="n">
-        <v>363.5187033424295</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D43" t="n">
-        <v>213.4020639300937</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300937</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218339</v>
@@ -7570,49 +7572,49 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1827.153823331421</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U43" t="n">
-        <v>1538.050956457064</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V43" t="n">
-        <v>1283.366468251177</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W43" t="n">
-        <v>993.9492982142167</v>
+        <v>1402.991452973352</v>
       </c>
       <c r="X43" t="n">
-        <v>765.9597473161994</v>
+        <v>1175.001902075335</v>
       </c>
       <c r="Y43" t="n">
-        <v>545.1671681726692</v>
+        <v>954.2093229318045</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2232.598233480553</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>1863.635716540141</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D44" t="n">
-        <v>1505.370017933391</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E44" t="n">
-        <v>1119.581765335147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F44" t="n">
-        <v>708.5958605455392</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>293.5234103905356</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U44" t="n">
-        <v>3009.337405520487</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V44" t="n">
-        <v>3009.337405520487</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W44" t="n">
-        <v>3009.337405520487</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X44" t="n">
-        <v>3009.337405520487</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y44" t="n">
-        <v>2619.198073544675</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7740,13 +7742,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658018</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U46" t="n">
-        <v>1705.527932658018</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V46" t="n">
-        <v>1705.527932658018</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W46" t="n">
-        <v>1705.527932658018</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.054724415577</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544048</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>45.78351343583182</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157919</v>
+        <v>25.82445471157931</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>65.05511571131669</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.66716643458776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4490126143851</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-4.251452755912475e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>121.0498792159543</v>
       </c>
       <c r="D11" t="n">
-        <v>209.4348714989687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>243.7637707342577</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>315.8063671420848</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>21.59472895491427</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
     </row>
     <row r="17">
@@ -23735,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>130.5482485912761</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>307.2767095024431</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>114.5413372017263</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>172.2573809594882</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>5.516901359348338</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>237.6227554889437</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
-        <v>170.4007815390661</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>47.07343810086871</v>
       </c>
     </row>
     <row r="23">
@@ -24209,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>167.8579417260432</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>219.6215666560271</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>94.35543628911073</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>83.32522828944215</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>35.80215787152434</v>
       </c>
       <c r="U26" t="n">
-        <v>113.0913093320077</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>94.35543628911073</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>198.6999368206713</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>307.2767095024444</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>167.8579417260432</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>87.33851575313383</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>137.8720259467264</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>255.1805474109854</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>256.766511719271</v>
       </c>
     </row>
     <row r="33">
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>75.50340795433958</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>206.1202045604621</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>139.5326190389238</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>100.2471097107932</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25205,10 +25207,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>239.1104512034322</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>83.32522828944224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>209.4348714989702</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>92.99907917315744</v>
       </c>
     </row>
     <row r="39">
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25609,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>150.6988949115</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>16.3511792290202</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>303.9530049144612</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>235.6797139074007</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>120.4096317666692</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>209.3696028278716</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>69.86658336855183</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>145.9927856228079</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>17.26178070012992</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.35117922902108</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>812322.1739518854</v>
+        <v>812322.1739518853</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812322.1739518857</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518857</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719635</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719627</v>
@@ -26320,31 +26322,31 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
         <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="H2" t="n">
         <v>392146.6638165588</v>
       </c>
       <c r="I2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="J2" t="n">
         <v>392146.6638165589</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>392146.6638165587</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>392146.6638165588</v>
       </c>
-      <c r="L2" t="n">
-        <v>392146.6638165587</v>
-      </c>
       <c r="M2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="N2" t="n">
         <v>392146.6638165588</v>
@@ -26353,7 +26355,7 @@
         <v>392146.6638165588</v>
       </c>
       <c r="P2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.663816559</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739514</v>
+        <v>176672.6241739507</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819061</v>
+        <v>223886.309381907</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640841</v>
+        <v>41076.98154640821</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946779</v>
+        <v>54988.29121946808</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341497</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631775</v>
+        <v>252122.0652631774</v>
       </c>
       <c r="C4" t="n">
-        <v>204705.4033055018</v>
+        <v>204705.403305502</v>
       </c>
       <c r="D4" t="n">
-        <v>141542.8205525801</v>
+        <v>141542.82055258</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26430,34 +26432,34 @@
         <v>11600.2349971284</v>
       </c>
       <c r="G4" t="n">
-        <v>11600.23499712836</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="H4" t="n">
         <v>11600.2349971284</v>
       </c>
       <c r="I4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="J4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="K4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="L4" t="n">
         <v>11600.23499712841</v>
       </c>
       <c r="M4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="N4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.23499712841</v>
       </c>
       <c r="O4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="P4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.2349971284</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923123</v>
+        <v>75746.8716792312</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26494,7 +26496,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139327</v>
@@ -26506,10 +26508,10 @@
         <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523158.8313866734</v>
+        <v>-523158.8313866733</v>
       </c>
       <c r="C6" t="n">
-        <v>14974.11851327831</v>
+        <v>14974.11851327884</v>
       </c>
       <c r="D6" t="n">
-        <v>13732.11529763215</v>
+        <v>13732.11529763119</v>
       </c>
       <c r="E6" t="n">
-        <v>124167.1084408465</v>
+        <v>124167.1084408469</v>
       </c>
       <c r="F6" t="n">
         <v>306240.0882580373</v>
       </c>
       <c r="G6" t="n">
-        <v>306240.0882580369</v>
+        <v>306240.0882580372</v>
       </c>
       <c r="H6" t="n">
-        <v>306240.0882580375</v>
+        <v>306240.0882580376</v>
       </c>
       <c r="I6" t="n">
         <v>306240.0882580372</v>
       </c>
       <c r="J6" t="n">
-        <v>237240.933838923</v>
+        <v>237240.9338389233</v>
       </c>
       <c r="K6" t="n">
-        <v>265163.1067116287</v>
+        <v>265163.1067116288</v>
       </c>
       <c r="L6" t="n">
-        <v>251251.7970385692</v>
+        <v>251251.797038569</v>
       </c>
       <c r="M6" t="n">
-        <v>258687.8224646222</v>
+        <v>258687.8224646223</v>
       </c>
       <c r="N6" t="n">
         <v>306240.0882580371</v>
@@ -26561,7 +26563,7 @@
         <v>306240.0882580371</v>
       </c>
       <c r="P6" t="n">
-        <v>306240.088258037</v>
+        <v>306240.0882580372</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908071</v>
+        <v>751.4467899908067</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26790,22 +26792,22 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919679</v>
+        <v>423.3179548919674</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
@@ -26814,7 +26816,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022924</v>
@@ -26829,7 +26831,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26960,19 +26962,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213289</v>
+        <v>137.3917762213283</v>
       </c>
       <c r="D3" t="n">
-        <v>182.618102126732</v>
+        <v>182.6181021267328</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>-4.547473508864641e-13</v>
@@ -27012,13 +27014,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904617</v>
+        <v>159.6040748904612</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080708</v>
+        <v>217.2668772080717</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>159.604074890462</v>
+        <v>159.6040748904612</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080706</v>
+        <v>217.2668772080717</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904617</v>
+        <v>159.6040748904612</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080708</v>
+        <v>217.2668772080717</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>137.354139010294</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>68.11956169855995</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,7 +27475,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27512,13 +27514,13 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>142.3067172863416</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>206.7925739975903</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>73.9477791803115</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>274.7645169977498</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>351.5832748950704</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>236.5441388771537</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539855</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398513</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
         <v>251.1039815783922</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.7470356681336</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,13 +27748,13 @@
         <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>96.78014753159444</v>
       </c>
       <c r="U6" t="n">
         <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>42.53997299798408</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515234</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>200.3148177094391</v>
+        <v>36.80243783759587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>212.8825902797669</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>146.6902751604659</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>54.63339358703168</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>60.96804737528993</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053494</v>
+        <v>3.020891618053492</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339035</v>
+        <v>30.93770628339033</v>
       </c>
       <c r="I5" t="n">
         <v>116.4629241050074</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677679</v>
+        <v>256.3943999677678</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599724</v>
+        <v>384.2687421599722</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159771</v>
+        <v>476.7193540159768</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285359</v>
+        <v>530.4421353285356</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383305</v>
+        <v>539.0252436383302</v>
       </c>
       <c r="O5" t="n">
-        <v>508.986252611311</v>
+        <v>508.9862526113107</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906153</v>
+        <v>434.407990790615</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190745</v>
+        <v>326.2223097190742</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025529</v>
+        <v>189.7610831025528</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639406</v>
+        <v>68.83856774639402</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802918</v>
+        <v>13.22395305802917</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442794</v>
+        <v>0.2416713294442793</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,43 +31360,43 @@
         <v>1.616319510546264</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395998</v>
+        <v>15.61024369395997</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328148</v>
+        <v>55.64959718328144</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433206</v>
+        <v>152.7067481433205</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499202</v>
+        <v>261.0001553499201</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876878</v>
+        <v>350.9469182876877</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449899</v>
+        <v>409.5385005449896</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345743</v>
+        <v>420.3777660345741</v>
       </c>
       <c r="O6" t="n">
-        <v>384.563528458786</v>
+        <v>384.5635284587858</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077336</v>
+        <v>308.6461353077335</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970986</v>
+        <v>206.3217676970985</v>
       </c>
       <c r="R6" t="n">
         <v>100.3535920670742</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633081</v>
+        <v>30.0224259963308</v>
       </c>
       <c r="T6" t="n">
-        <v>6.51490188680709</v>
+        <v>6.514901886807086</v>
       </c>
       <c r="U6" t="n">
         <v>0.1063368099043595</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950636</v>
+        <v>1.355067981950635</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952475</v>
+        <v>12.04778623952474</v>
       </c>
       <c r="I7" t="n">
-        <v>40.7505898572064</v>
+        <v>40.75058985720638</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390994</v>
+        <v>95.80330632390988</v>
       </c>
       <c r="K7" t="n">
-        <v>157.434261902992</v>
+        <v>157.4342619029919</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165518</v>
+        <v>201.4616525165517</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706801</v>
+        <v>212.4130655706799</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379551</v>
+        <v>207.362357637955</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488045</v>
+        <v>191.5326998488044</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170114</v>
+        <v>163.8893130170113</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886119</v>
+        <v>113.4684652886118</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843493</v>
+        <v>60.92878398843489</v>
       </c>
       <c r="S7" t="n">
-        <v>23.6151392854488</v>
+        <v>23.61513928544878</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879988</v>
+        <v>5.789835922879984</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548931</v>
+        <v>0.07391279901548926</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035317</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,7 +32797,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -33029,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33752,7 +33754,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953998</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095011</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.994981974642</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34787,13 +34789,13 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>164.0235134695728</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108164</v>
+        <v>75.34849544108152</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149919</v>
+        <v>164.1788911149916</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459899</v>
+        <v>240.9529390459896</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012632</v>
+        <v>300.0959021012629</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417396</v>
+        <v>309.6121800417392</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896242</v>
+        <v>278.888041189624</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353458</v>
+        <v>203.1749950353455</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.916619844625</v>
+        <v>103.9166198446248</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665387</v>
+        <v>25.86912147665376</v>
       </c>
       <c r="K6" t="n">
-        <v>387.6239533881399</v>
+        <v>188.2138320868778</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078136</v>
+        <v>212.3925385078135</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229715</v>
+        <v>267.4044666229713</v>
       </c>
       <c r="N6" t="n">
-        <v>289.036053951241</v>
+        <v>289.0360539512408</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143415</v>
+        <v>241.9672840143413</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934034</v>
+        <v>174.6717278934032</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.00716004566485</v>
+        <v>276.4172813469261</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144311126</v>
+        <v>0.1957579144310557</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237161</v>
+        <v>2.444126207237105</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771092</v>
+        <v>135.164770077109</v>
       </c>
       <c r="L7" t="n">
-        <v>229.051677776868</v>
+        <v>229.0516777768678</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325206</v>
+        <v>251.9969425325205</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171837</v>
+        <v>251.4945300171836</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628441</v>
+        <v>216.117827762844</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819049</v>
+        <v>161.1678722819047</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691748</v>
+        <v>27.30642203691743</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>373.0365088578699</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060958</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36677,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687135</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129101</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1070504.541851863</v>
+        <v>1088121.991715942</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>4171427.15767326</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9886486.048802489</v>
+        <v>9886486.048802488</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8.484528893292234</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>130.667194181901</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>89.14525753719026</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>10.18456372565657</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>10.16188515253026</v>
+        <v>148.8568323608755</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.8636634087582</v>
       </c>
       <c r="G5" t="n">
-        <v>193.3359674106345</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539876</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398515</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>190.2606141514329</v>
+        <v>190.2606141514304</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>76.60691003871828</v>
+        <v>76.60691003871761</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>402.4082580489718</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.9058054044807</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4.052591348953969</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.14763241892996</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>260.9029790379993</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247737</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734125409</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414546</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>8.612336174460948</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.903645220291394</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>151.1343670460521</v>
+        <v>270.4333233586307</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734125409</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1818,19 +1818,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>109.7811651255454</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>205.6032946004326</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>317.8977367051468</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>181.7594728473281</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7368957119608427</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>1.487334137518163</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>195.5565936082896</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>245.5774513637176</v>
       </c>
     </row>
     <row r="21">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>36.41670903610054</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>7.601081015447603</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>177.9928435462455</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>22.79319361026555</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>1.830058562124891</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>11.65980277056649</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>77.92383158564638</v>
+        <v>60.46288169317341</v>
       </c>
     </row>
     <row r="27">
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>9.19425021581622</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.5103646250813</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>230.2267521569527</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>105.0023863360944</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>31.83188548727787</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>108.3106828261006</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>12.87606160420842</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>100.9068926882556</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>98.711881556709</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>9.284500773737516</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>16.18906253498161</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>363.4055856812045</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>161.2881904124168</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.30120386691597</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>158.1556649146124</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>18.74495671803836</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>17.84935903930806</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>180.4082787866284</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>87.56115536271582</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>314.2526548061863</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>6.380068175847423</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>307.9801808572799</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>120.6088074159623</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>71.67037196991667</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>11.16818915334145</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.047988003768</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="C2" t="n">
-        <v>166.047988003768</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="D2" t="n">
-        <v>166.047988003768</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>166.047988003768</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052545</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358418</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>432.425644570946</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>166.047988003768</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="W2" t="n">
-        <v>166.047988003768</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="X2" t="n">
-        <v>166.047988003768</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.047988003768</v>
+        <v>432.4256445709457</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>111.1428250841511</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>111.1428250841511</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>111.1428250841511</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>111.1428250841511</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>111.1428250841511</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699345</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302312</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4442,19 +4442,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>318.9943252896839</v>
       </c>
       <c r="X3" t="n">
-        <v>1026.232198106091</v>
+        <v>111.1428250841511</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>111.1428250841511</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.9529738206666</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="C4" t="n">
-        <v>466.0167908927597</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>315.900151480424</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.590989548924</v>
+        <v>904.4950832778675</v>
       </c>
       <c r="V4" t="n">
-        <v>1044.590989548924</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="W4" t="n">
-        <v>1044.590989548924</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="X4" t="n">
-        <v>816.6014386509063</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.6014386509063</v>
+        <v>649.8105950719806</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>735.1027885304934</v>
+        <v>1339.682528309321</v>
       </c>
       <c r="C5" t="n">
-        <v>735.1027885304934</v>
+        <v>1339.682528309321</v>
       </c>
       <c r="D5" t="n">
-        <v>735.1027885304934</v>
+        <v>981.416829702571</v>
       </c>
       <c r="E5" t="n">
-        <v>735.1027885304934</v>
+        <v>595.6285771043267</v>
       </c>
       <c r="F5" t="n">
-        <v>324.1168837408858</v>
+        <v>450.3117453783083</v>
       </c>
       <c r="G5" t="n">
-        <v>128.8280277705479</v>
+        <v>33.86543639135721</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705479</v>
+        <v>33.86543639135721</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135726</v>
+        <v>33.86543639135721</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780275</v>
+        <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818685</v>
+        <v>270.9975490818682</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373972</v>
+        <v>509.5409587373966</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176465</v>
+        <v>806.6359018176455</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058967</v>
+        <v>1113.151960058966</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836694</v>
+        <v>1389.251120836692</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921685</v>
+        <v>1590.394365921683</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567863</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567863</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567863</v>
+        <v>1551.67434296195</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567863</v>
+        <v>1339.682528309321</v>
       </c>
       <c r="U5" t="n">
-        <v>1439.631434135144</v>
+        <v>1339.682528309321</v>
       </c>
       <c r="V5" t="n">
-        <v>1108.568546791573</v>
+        <v>1339.682528309321</v>
       </c>
       <c r="W5" t="n">
-        <v>1108.568546791573</v>
+        <v>1339.682528309321</v>
       </c>
       <c r="X5" t="n">
-        <v>735.1027885304934</v>
+        <v>1339.682528309321</v>
       </c>
       <c r="Y5" t="n">
-        <v>735.1027885304934</v>
+        <v>1339.682528309321</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.0248883123061</v>
+        <v>663.024888312306</v>
       </c>
       <c r="C6" t="n">
-        <v>488.5718590311791</v>
+        <v>488.571859031179</v>
       </c>
       <c r="D6" t="n">
-        <v>339.6374493699278</v>
+        <v>339.6374493699277</v>
       </c>
       <c r="E6" t="n">
-        <v>180.3999943644723</v>
+        <v>180.3999943644722</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135726</v>
+        <v>33.86543639135721</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135726</v>
+        <v>33.86543639135721</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135726</v>
+        <v>33.86543639135721</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135726</v>
+        <v>33.86543639135721</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324423</v>
+        <v>124.0742315427321</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650493</v>
+        <v>246.0013607545369</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877839</v>
+        <v>456.2699738772714</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445248</v>
+        <v>721.0003958340119</v>
       </c>
       <c r="N6" t="n">
-        <v>942.5477243562523</v>
+        <v>1007.146089245739</v>
       </c>
       <c r="O6" t="n">
-        <v>1361.632499699298</v>
+        <v>1246.693700419936</v>
       </c>
       <c r="P6" t="n">
-        <v>1534.557510313767</v>
+        <v>1419.618711034404</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232577</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567863</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567863</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567863</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="U6" t="n">
-        <v>1693.271819567863</v>
+        <v>1693.271819567861</v>
       </c>
       <c r="V6" t="n">
         <v>1501.089381031062</v>
@@ -4691,7 +4691,7 @@
         <v>1039.000524097328</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.2402253323742</v>
+        <v>831.2402253323739</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.0404022124167</v>
+        <v>816.0404022124166</v>
       </c>
       <c r="C7" t="n">
-        <v>647.1042192845098</v>
+        <v>647.1042192845097</v>
       </c>
       <c r="D7" t="n">
-        <v>496.987579872174</v>
+        <v>496.9875798721739</v>
       </c>
       <c r="E7" t="n">
-        <v>349.0744862897809</v>
+        <v>349.0744862897808</v>
       </c>
       <c r="F7" t="n">
         <v>202.1845387918705</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135726</v>
+        <v>33.86543639135721</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135726</v>
+        <v>33.86543639135721</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135726</v>
+        <v>33.86543639135721</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652183</v>
+        <v>36.28512133652171</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128595</v>
+        <v>170.0982437128593</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119583</v>
+        <v>396.8594047119579</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191532</v>
+        <v>646.3363778191526</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361645</v>
+        <v>895.3159625361639</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.27261202138</v>
+        <v>1109.272612021379</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580465</v>
+        <v>1268.828805580464</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.862163397013</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.481446186187</v>
+        <v>1218.481446186186</v>
       </c>
       <c r="Y7" t="n">
-        <v>997.6888670426564</v>
+        <v>997.6888670426563</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1634.158487398107</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1239.138472452406</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>828.1525676627989</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4822,7 +4822,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723851</v>
@@ -4837,19 +4837,19 @@
         <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2317.990030011792</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>1986.927142668221</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.158487398107</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.158487398107</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.158487398107</v>
+        <v>1624.926725050651</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.916702154261</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488054</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756905</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,16 +4880,16 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605191</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919908</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
         <v>1342.935112151211</v>
@@ -4901,31 +4901,31 @@
         <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>940.7932119894607</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1632.352593459393</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1632.352593459393</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1632.352593459393</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1343.23425596323</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1343.23425596323</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1343.23425596323</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1343.23425596323</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>1122.4416768197</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2047.583838282732</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>787.119828012364</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>787.119828012364</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477181</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.33740552049</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450756</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180641</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.975386180641</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.975386180641</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
@@ -5117,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>676.4685272225361</v>
+        <v>370.0144869816394</v>
       </c>
       <c r="C13" t="n">
-        <v>507.5323442946292</v>
+        <v>370.0144869816394</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946292</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>359.6192507122361</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.338775876041</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581906</v>
@@ -5217,34 +5217,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088494</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088494</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088494</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214137</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.50719300825</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X13" t="n">
-        <v>866.1004720732722</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y13" t="n">
-        <v>858.1169920527758</v>
+        <v>370.0144869816394</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1659.057359339776</v>
+        <v>1892.963660013483</v>
       </c>
       <c r="C14" t="n">
-        <v>1290.094842399364</v>
+        <v>1524.001143073071</v>
       </c>
       <c r="D14" t="n">
-        <v>931.8291437926139</v>
+        <v>1165.735444466321</v>
       </c>
       <c r="E14" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2788.565186649824</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W14" t="n">
-        <v>2435.796531379709</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X14" t="n">
-        <v>2435.796531379709</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y14" t="n">
-        <v>2045.657199403898</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.6192507122361</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C16" t="n">
-        <v>359.6192507122361</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D16" t="n">
-        <v>359.6192507122361</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>359.6192507122361</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G16" t="n">
         <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.338775876041</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.60866391532</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484846</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="U16" t="n">
-        <v>1513.842048484846</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V16" t="n">
-        <v>1259.157560278959</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W16" t="n">
-        <v>969.7403902419985</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X16" t="n">
-        <v>762.0602946860059</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y16" t="n">
-        <v>541.2677155424758</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1179.52858457759</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C17" t="n">
-        <v>810.5660676371782</v>
+        <v>1255.676195092019</v>
       </c>
       <c r="D17" t="n">
-        <v>452.3003690304277</v>
+        <v>1255.676195092019</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218345</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218345</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5536,31 +5536,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267231</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>2682.502170148718</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2329.733514878603</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X17" t="n">
-        <v>1956.267756617523</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.128424641712</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>530.9956795433845</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C19" t="n">
-        <v>362.0594966154777</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D19" t="n">
         <v>361.3151575124869</v>
@@ -5661,31 +5661,31 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1450.843444452132</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>1161.426274415172</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>933.4367235171544</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y19" t="n">
-        <v>712.6441443736243</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1320.35562273557</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
@@ -5755,7 +5755,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3017.78324040062</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>2764.252763674457</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2433.189876330886</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W20" t="n">
-        <v>2080.421221060772</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X20" t="n">
-        <v>1706.955462799692</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y20" t="n">
-        <v>1706.955462799692</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="21">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.2149530574645</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574645</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574645</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="F22" t="n">
         <v>234.2149530574645</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1919.61668847693</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1697.850073046456</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1408.747206172099</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1154.062717966212</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>864.6455479292516</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>636.6559970312343</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>415.8634178877041</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1712.341567565139</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C23" t="n">
-        <v>1343.379050624727</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.080739605072</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y23" t="n">
-        <v>2098.941407629261</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>773.7942044041906</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C25" t="n">
-        <v>604.8580214762837</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D25" t="n">
-        <v>604.8580214762837</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E25" t="n">
-        <v>456.9449278938906</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218343</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1513.842048484845</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>1511.993504482699</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>1222.576334445738</v>
+        <v>1149.962999021648</v>
       </c>
       <c r="X25" t="n">
-        <v>994.5867835477208</v>
+        <v>921.9734481236303</v>
       </c>
       <c r="Y25" t="n">
-        <v>773.7942044041906</v>
+        <v>701.1808689801002</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.798686923957</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C26" t="n">
         <v>1250.836169983545</v>
@@ -6238,10 +6238,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296686</v>
@@ -6271,7 +6271,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1619.798686923957</v>
+        <v>1637.436010047667</v>
       </c>
     </row>
     <row r="27">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E28" t="n">
         <v>66.51211643218342</v>
@@ -6411,25 +6411,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1828.176969415903</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>1539.074102541547</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>1284.38961433566</v>
       </c>
       <c r="W28" t="n">
-        <v>590.8070661251691</v>
+        <v>994.9724442986994</v>
       </c>
       <c r="X28" t="n">
-        <v>362.8175152271517</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="Y28" t="n">
-        <v>248.1605812624231</v>
+        <v>546.190314257152</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1921.870414581995</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C29" t="n">
-        <v>1552.907897641583</v>
+        <v>916.6290841382836</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>558.3633855315331</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>172.5751329332889</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>172.5751329332889</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052369</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883008</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V29" t="n">
-        <v>3072.075344883008</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W29" t="n">
-        <v>3072.075344883008</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X29" t="n">
-        <v>2698.609586621928</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y29" t="n">
-        <v>2308.470254646116</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>492.7661230698578</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>323.8299401419509</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8299401419509</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9168465595578</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
         <v>66.51211643218343</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.821308835076</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>902.4041387981149</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X31" t="n">
-        <v>674.4145879000976</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.4145879000976</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>494.5906894197207</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>79.51823926471718</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>79.51823926471718</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2782.326111562134</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X32" t="n">
-        <v>2782.326111562134</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>529.0179941377679</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C34" t="n">
         <v>529.0179941377679</v>
@@ -6849,13 +6849,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6891,19 +6891,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1259.157560278958</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W34" t="n">
-        <v>1159.448589009555</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X34" t="n">
-        <v>931.4590381115378</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y34" t="n">
-        <v>710.6664589680076</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2003.254328486388</v>
+        <v>2255.174438931364</v>
       </c>
       <c r="C35" t="n">
-        <v>1634.291811545976</v>
+        <v>1886.211921990952</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1527.946223384202</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>1142.157970785958</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>731.1720659963501</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3119.628073993394</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W35" t="n">
-        <v>2766.859418723279</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X35" t="n">
-        <v>2393.393660462199</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y35" t="n">
-        <v>2003.254328486388</v>
+        <v>2641.774278995486</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>550.0410834832817</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="C37" t="n">
-        <v>381.1049005553748</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="D37" t="n">
-        <v>381.1049005553748</v>
+        <v>591.9485030942487</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>444.0354095118556</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>297.1454620139452</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>129.4426253886642</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X37" t="n">
-        <v>933.7510266797581</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y37" t="n">
-        <v>712.9584475362279</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1221.525483338121</v>
+        <v>1529.83239115168</v>
       </c>
       <c r="C38" t="n">
-        <v>852.5629663977095</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="D38" t="n">
-        <v>494.2972677909589</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E38" t="n">
-        <v>108.5090151927147</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052369</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3055.56195625282</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V38" t="n">
-        <v>2724.499068909249</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W38" t="n">
-        <v>2371.730413639134</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X38" t="n">
-        <v>1998.264655378055</v>
+        <v>2306.571563191613</v>
       </c>
       <c r="Y38" t="n">
-        <v>1608.125323402243</v>
+        <v>1916.432231215801</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>701.1808689801002</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="C40" t="n">
-        <v>532.2446860521933</v>
+        <v>697.1642891453644</v>
       </c>
       <c r="D40" t="n">
-        <v>382.1280466398576</v>
+        <v>547.0476497330286</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574645</v>
+        <v>399.1345561506355</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>252.2446086527251</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>84.5417720274441</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218343</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1513.842048484845</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>1331.611463851887</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>1331.611463851887</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X40" t="n">
-        <v>1103.62191295387</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y40" t="n">
-        <v>882.8293338103399</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1292.833068744076</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C41" t="n">
-        <v>1292.833068744076</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D41" t="n">
-        <v>934.5673701373257</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3126.869541658774</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2795.806654315204</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W41" t="n">
-        <v>2443.037999045089</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X41" t="n">
-        <v>2069.572240784009</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y41" t="n">
-        <v>1679.432908808198</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.8928126690271</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C43" t="n">
-        <v>72.9566297411202</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408143</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X43" t="n">
-        <v>644.3338566427969</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y43" t="n">
-        <v>423.5412774992668</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1561.900772669911</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>1192.938255729499</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>834.6725571227485</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>834.6725571227485</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3009.337405520487</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V44" t="n">
-        <v>2678.274518176916</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W44" t="n">
-        <v>2325.505862906802</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X44" t="n">
-        <v>1952.040104645722</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y44" t="n">
-        <v>1561.900772669911</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.7622949738575</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C46" t="n">
-        <v>583.8261120459506</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D46" t="n">
-        <v>433.7094726336148</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E46" t="n">
-        <v>285.7963790512217</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9064315533114</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088492</v>
+        <v>1916.013548943703</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088492</v>
+        <v>1626.910682069347</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.610059882605</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="W46" t="n">
-        <v>1383.192889845645</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X46" t="n">
-        <v>1155.203338947627</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y46" t="n">
-        <v>934.4107598040972</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127278</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157965</v>
+        <v>25.82445471157979</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>65.25087362574546</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>181.3506708776252</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>93.78173256953914</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189689002</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>114.3555089013357</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.258622983592976e-12</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.858503308686859e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.5862092445506</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>145.9730667037122</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>140.0031368437514</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.6810081318034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>230.7960030262096</v>
+        <v>111.4970467136311</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>109.7677841506238</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>20.10636078860452</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>64.03263336711495</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>145.9927856228068</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>147.8785773062515</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>217.0973192145766</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>8.361376531330535</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>140.660487292336</v>
       </c>
     </row>
     <row r="21">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0043389868307</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>182.1679443159943</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>204.7409981172351</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>331.8898480104174</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>250.3075847617031</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>274.8631955660245</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>308.3141070704072</v>
+        <v>325.7750569628802</v>
       </c>
     </row>
     <row r="27">
@@ -24606,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.354699060353</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>124.4562894637303</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>305.9193393173591</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>148.0000946946594</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>37.1103651968306</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>28.70086816871753</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>248.3340760291574</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>187.811116779882</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>209.3001525783573</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>338.4939790857014</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>47.51613997224894</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.54378976952052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>82.45381104740481</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>92.83950704428958</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>350.9861439604307</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>126.9056558750127</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>71.72936453719961</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>163.4340165961862</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>55.47844587228275</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>142.2354048423649</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>98.89586488443155</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>130.3863645429396</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>94.35543628911155</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>208.3807601228278</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812322.1739518857</v>
+        <v>812322.1739518855</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812322.1739518857</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812322.1739518854</v>
+        <v>812322.1739518857</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518857</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812322.1739518855</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719634</v>
+        <v>472099.0176719635</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165591</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="H2" t="n">
         <v>392146.663816559</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>392146.6638165588</v>
-      </c>
-      <c r="I2" t="n">
-        <v>392146.6638165589</v>
       </c>
       <c r="J2" t="n">
         <v>392146.6638165589</v>
@@ -26346,16 +26346,16 @@
         <v>392146.6638165588</v>
       </c>
       <c r="M2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="N2" t="n">
         <v>392146.663816559</v>
       </c>
-      <c r="N2" t="n">
-        <v>392146.6638165589</v>
-      </c>
       <c r="O2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="P2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.663816559</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.624173949</v>
+        <v>176672.6241739485</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819087</v>
+        <v>223886.3093819091</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171911</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911403</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640786</v>
+        <v>41076.9815464077</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946848</v>
+        <v>54988.29121946856</v>
       </c>
       <c r="M3" t="n">
         <v>47552.26579341491</v>
@@ -26420,16 +26420,16 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>204705.4033055024</v>
+        <v>204705.4033055026</v>
       </c>
       <c r="D4" t="n">
-        <v>141542.82055258</v>
+        <v>141542.8205525801</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.23499712835</v>
+        <v>11600.23499712838</v>
       </c>
       <c r="F4" t="n">
-        <v>11600.23499712835</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="G4" t="n">
         <v>11600.2349971284</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923107</v>
+        <v>75746.87167923102</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26508,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523158.8313866733</v>
+        <v>-523158.8313866731</v>
       </c>
       <c r="C6" t="n">
-        <v>14974.11851328039</v>
+        <v>14974.11851328066</v>
       </c>
       <c r="D6" t="n">
-        <v>13732.11529762967</v>
+        <v>13732.11529762911</v>
       </c>
       <c r="E6" t="n">
-        <v>120690.9191427854</v>
+        <v>123819.4895110404</v>
       </c>
       <c r="F6" t="n">
-        <v>302763.8989599762</v>
+        <v>305892.4693282314</v>
       </c>
       <c r="G6" t="n">
-        <v>302763.8989599765</v>
+        <v>305892.469328231</v>
       </c>
       <c r="H6" t="n">
-        <v>302763.898959976</v>
+        <v>305892.4693282312</v>
       </c>
       <c r="I6" t="n">
-        <v>302763.8989599762</v>
+        <v>305892.469328231</v>
       </c>
       <c r="J6" t="n">
-        <v>233764.7445408622</v>
+        <v>236893.3149091171</v>
       </c>
       <c r="K6" t="n">
-        <v>261686.9174135684</v>
+        <v>264815.4877818234</v>
       </c>
       <c r="L6" t="n">
-        <v>247775.6077405076</v>
+        <v>250904.1781087624</v>
       </c>
       <c r="M6" t="n">
-        <v>255211.6331665614</v>
+        <v>258340.2035348162</v>
       </c>
       <c r="N6" t="n">
-        <v>302763.8989599762</v>
+        <v>305892.4693282311</v>
       </c>
       <c r="O6" t="n">
-        <v>302763.8989599759</v>
+        <v>305892.469328231</v>
       </c>
       <c r="P6" t="n">
-        <v>302763.8989599759</v>
+        <v>305892.4693282311</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908053</v>
+        <v>751.4467899908047</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919658</v>
+        <v>423.3179548919651</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213271</v>
+        <v>137.3917762213267</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267341</v>
+        <v>182.6181021267345</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904596</v>
+        <v>159.6040748904589</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080733</v>
+        <v>217.2668772080738</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904598</v>
+        <v>159.6040748904592</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080733</v>
+        <v>217.2668772080736</v>
       </c>
       <c r="M4" t="n">
         <v>190.816623302254</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904596</v>
+        <v>159.6040748904589</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080733</v>
+        <v>217.2668772080738</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>346.1985127273907</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>276.2088515598105</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>46.87746204923319</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.5884214778209</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>276.0967453501472</v>
+        <v>137.401798141802</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>263.0123823329532</v>
       </c>
       <c r="G5" t="n">
-        <v>218.945878486447</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>308.5370958323769</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539885</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27712,10 +27712,10 @@
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253652</v>
+        <v>96.62520054253653</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813373</v>
+        <v>33.74703566813378</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>42.53997299799241</v>
+        <v>42.53997299799488</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>116.3646073887348</v>
       </c>
       <c r="S7" t="n">
         <v>200.4014587515235</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>149.1027453503189</v>
+        <v>149.1027453503195</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>9.139444723982137</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>9.139444723981342</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>97.50498107061964</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,16 +28067,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053486</v>
+        <v>3.020891618053484</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339028</v>
+        <v>30.93770628339025</v>
       </c>
       <c r="I5" t="n">
         <v>116.4629241050071</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677673</v>
+        <v>256.3943999677671</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599715</v>
+        <v>384.2687421599712</v>
       </c>
       <c r="L5" t="n">
-        <v>476.719354015976</v>
+        <v>476.7193540159756</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285346</v>
+        <v>530.4421353285343</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383291</v>
+        <v>539.0252436383288</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113097</v>
+        <v>508.9862526113094</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906142</v>
+        <v>434.4079907906139</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190737</v>
+        <v>326.2223097190734</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025525</v>
+        <v>189.7610831025523</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639389</v>
+        <v>68.83856774639384</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802914</v>
+        <v>13.22395305802913</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442789</v>
+        <v>0.2416713294442787</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61631951054626</v>
+        <v>1.616319510546259</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395994</v>
+        <v>15.61024369395993</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328134</v>
+        <v>55.6495971832813</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433202</v>
+        <v>152.7067481433201</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499196</v>
+        <v>261.0001553499195</v>
       </c>
       <c r="L6" t="n">
-        <v>350.946918287687</v>
+        <v>350.9469182876867</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449888</v>
+        <v>409.5385005449886</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345733</v>
+        <v>420.377766034573</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587851</v>
+        <v>384.5635284587848</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077329</v>
+        <v>308.6461353077327</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970981</v>
+        <v>206.321767697098</v>
       </c>
       <c r="R6" t="n">
-        <v>100.353592067074</v>
+        <v>100.3535920670739</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633074</v>
+        <v>30.02242599633072</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807074</v>
+        <v>6.514901886807069</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043593</v>
+        <v>0.1063368099043592</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950632</v>
+        <v>1.355067981950631</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952472</v>
+        <v>12.04778623952471</v>
       </c>
       <c r="I7" t="n">
-        <v>40.7505898572063</v>
+        <v>40.75058985720627</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390971</v>
+        <v>95.80330632390964</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029916</v>
+        <v>157.4342619029915</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165513</v>
+        <v>201.4616525165512</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706795</v>
+        <v>212.4130655706794</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379546</v>
+        <v>207.3623576379545</v>
       </c>
       <c r="O7" t="n">
-        <v>191.532699848804</v>
+        <v>191.5326998488038</v>
       </c>
       <c r="P7" t="n">
-        <v>163.889313017011</v>
+        <v>163.8893130170108</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886116</v>
+        <v>113.4684652886115</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843478</v>
+        <v>60.92878398843474</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544874</v>
+        <v>23.61513928544872</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879973</v>
+        <v>5.789835922879969</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548913</v>
+        <v>0.07391279901548907</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953991</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563571</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451122</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752262</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802171</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895882</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095029</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912726</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108101</v>
+        <v>75.34849544108084</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149909</v>
+        <v>164.1788911149906</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459887</v>
+        <v>240.9529390459884</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012619</v>
+        <v>300.0959021012616</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417382</v>
+        <v>309.6121800417379</v>
       </c>
       <c r="O5" t="n">
-        <v>278.888041189623</v>
+        <v>278.8880411896226</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353447</v>
+        <v>203.1749950353444</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446242</v>
+        <v>103.9166198446239</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.8691214766535</v>
+        <v>91.11999510239885</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755606</v>
+        <v>123.1587163755605</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078128</v>
+        <v>212.3925385078126</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229705</v>
+        <v>267.4044666229702</v>
       </c>
       <c r="N6" t="n">
-        <v>289.03605395124</v>
+        <v>289.0360539512396</v>
       </c>
       <c r="O6" t="n">
-        <v>423.3179548919658</v>
+        <v>241.9672840143404</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934026</v>
+        <v>174.6717278934024</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.1217261806158</v>
+        <v>276.4172813469255</v>
       </c>
       <c r="R6" t="n">
-        <v>0.195757914430871</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236934</v>
+        <v>2.444126207236863</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771088</v>
+        <v>135.1647700771086</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768675</v>
+        <v>229.0516777768673</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325201</v>
+        <v>251.99694253252</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171832</v>
+        <v>251.4945300171831</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628437</v>
+        <v>216.1178277628435</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819045</v>
+        <v>161.1678722819043</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691721</v>
+        <v>27.30642203691713</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>364.035038024868</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193722</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193706</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
